--- a/data/transactions_2015_2022.xlsx
+++ b/data/transactions_2015_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklintan/PycharmProjects/Spendalyzer-Bank-Statement-Analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DD7BF-6253-C24A-BFE1-4A0607261580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A400B9-134B-DB42-9C7A-C36C1A748425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <autoFilter ref="A1:D2216" xr:uid="{CD53B110-8D64-43A0-86DB-F403D57E25B0}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Groceries"/>
+        <filter val="Gas"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F758C8E0-D6DB-4584-9E42-62B458172761}">
   <dimension ref="A1:F2216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1905" workbookViewId="0">
-      <selection activeCell="C1999" sqref="C1999:C2012"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215:C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42023</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42026</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42031</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42032</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42033</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42034</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42035</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42035</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42036</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42037</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42049</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42081</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42083</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>42085</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42095</v>
       </c>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42096</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42096</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42104</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42109</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42112</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42113</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42120</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42125</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>42131</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42132</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>42151</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42153</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42146</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42161</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42165</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42169</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42172</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42174</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42177</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42183</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>42187</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>42191</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>42195</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>42205</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42218</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42221</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>42223</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>42226</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>42246</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>42250</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>42263</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>42268</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>42269</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>42273</v>
       </c>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>42291</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>42303</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>42304</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>42309</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>42325</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>42329</v>
       </c>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>42330</v>
       </c>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>42330</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>42333</v>
       </c>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>42362</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>42367</v>
       </c>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>42367</v>
       </c>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>42368</v>
       </c>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>42368</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>42388</v>
       </c>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>42392</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>42396</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>42396</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>42397</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>42399</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>42401</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>42403</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>42403</v>
       </c>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>42404</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>42421</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>42452</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>42464</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>42468</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>42486</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>42487</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>42487</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>42493</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>42498</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>42501</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>42501</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>42504</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>42514</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>42519</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>42520</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>42535</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>42537</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>42539</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>42540</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>42546</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>42551</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>42552</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>42554</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>42557</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>42560</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>42568</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>42568</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>42572</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>42581</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>42590</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>42591</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>42594</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>42595</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>42596</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>42599</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>42603</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>42619</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>42622</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>42633</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>42639</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>42661</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>42671</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>42673</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>42675</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>42685</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>42690</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>42692</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>42692</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>42695</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>42725</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>42730</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>42733</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>42734</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>42735</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>42758</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>42762</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>42764</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>42765</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>42767</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>42771</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>42773</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>42778</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>42778</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>42781</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>42794</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>42821</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>42822</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>42823</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>42843</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>42843</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>42843</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>42852</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>42856</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>42856</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>42857</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>42860</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>42868</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>42870</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>42870</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>42883</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>42884</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>42886</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>42887</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>42890</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>42893</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>42895</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>42895</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="5"/>
       <c r="C810" s="7"/>
@@ -12935,7 +12935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <v>42904</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>42906</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>42906</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>42909</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="5"/>
       <c r="C828" s="7"/>
@@ -13221,7 +13221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>42921</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>42928</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>42938</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>42942</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>42944</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>42949</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>42952</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
         <v>42966</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>42972</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>42989</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>42994</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>42996</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>42997</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>43014</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>43019</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2">
         <v>43021</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>43023</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2">
         <v>43036</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A938" s="2">
         <v>43037</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2">
         <v>43039</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A943" s="2">
         <v>43041</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2">
         <v>43046</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2">
         <v>43083</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2">
         <v>43086</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2">
         <v>43090</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A986" s="2">
         <v>43092</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" s="2">
         <v>43092</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="2">
         <v>43101</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="2">
         <v>43125</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1013" s="2">
         <v>43136</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="2">
         <v>43136</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="2">
         <v>43136</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="2">
         <v>43137</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="2">
         <v>43142</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="2">
         <v>43143</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="2">
         <v>43144</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="2">
         <v>43147</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="2">
         <v>43159</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" s="2">
         <v>43187</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1067" s="2">
         <v>43193</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" s="2">
         <v>43197</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" s="2">
         <v>43217</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" s="2">
         <v>43217</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" s="2">
         <v>43219</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" s="2">
         <v>43221</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1092" s="2">
         <v>43225</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" s="2">
         <v>43229</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1096" s="2">
         <v>43230</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1101" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1101" s="2">
         <v>43232</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1106" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1106" s="2">
         <v>43238</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" s="2">
         <v>43242</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1114" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1114" s="2">
         <v>43247</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1128" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1128" s="2">
         <v>43261</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1129" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1129" s="2">
         <v>43261</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" s="2">
         <v>43264</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1134" s="2">
         <v>43268</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1138" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1138" s="2">
         <v>43272</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1139" s="2">
         <v>43274</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1141" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1141" s="2">
         <v>43275</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1142" s="2">
         <v>43275</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" s="2">
         <v>43275</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1146" s="2">
         <v>43281</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" s="2">
         <v>43287</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1151" s="2">
         <v>43288</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1155" s="2">
         <v>43292</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1162" s="2">
         <v>43300</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" s="2">
         <v>43305</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" s="2">
         <v>43308</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172" s="2">
         <v>43310</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1176" s="2">
         <v>43315</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1178" s="2">
         <v>43316</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182" s="2">
         <v>43317</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1186" s="2">
         <v>43319</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1206" s="2">
         <v>43341</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1209" s="2">
         <v>43348</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1220" s="2">
         <v>43363</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1225" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1225" s="2">
         <v>43367</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1227" s="2"/>
       <c r="B1227" s="5"/>
       <c r="C1227" s="7"/>
@@ -18715,7 +18715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1229" s="2"/>
       <c r="B1229" s="5"/>
       <c r="C1229" s="7"/>
@@ -18959,7 +18959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1247" s="2">
         <v>43389</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1252" s="2">
         <v>43397</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1254" s="2">
         <v>43398</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1256" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1256" s="2">
         <v>43402</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1270" s="2">
         <v>43420</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1273" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1273" s="2">
         <v>43424</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1276" s="2">
         <v>43425</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1277" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1277" s="2">
         <v>43430</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1282" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1282" s="2">
         <v>43433</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1313" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1313" s="2">
         <v>43460</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1315" s="2">
         <v>43461</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1319" s="2">
         <v>43463</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1320" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1320" s="2">
         <v>43463</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1321" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1321" s="2">
         <v>43464</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1342" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1342" s="2">
         <v>43491</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1346" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1346" s="2">
         <v>43492</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1348" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1348" s="2">
         <v>43496</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1349" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1349" s="2">
         <v>43499</v>
       </c>
@@ -20415,7 +20415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1351" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1351" s="2">
         <v>43501</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1353" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1353" s="2">
         <v>43502</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1355" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1355" s="2">
         <v>43503</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1356" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1356" s="2">
         <v>43504</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1357" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1357" s="2">
         <v>43504</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1360" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1360" s="2">
         <v>43507</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1372" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1372" s="2">
         <v>43527</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1400" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1400" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1400" s="2">
         <v>43554</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1401" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1401" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1401" s="2">
         <v>43555</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1405" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1405" s="2">
         <v>43560</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1416" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1416" s="2">
         <v>43574</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1417" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1417" s="2">
         <v>43575</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1418" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1418" s="2">
         <v>43576</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1423" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1423" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1423" s="2">
         <v>43585</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1425" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1425" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1425" s="2">
         <v>43591</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1426" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1426" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1426" s="2">
         <v>43592</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1428" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1428" s="2">
         <v>43592</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1433" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1433" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1433" s="2">
         <v>43597</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1441" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1441" s="2">
         <v>43604</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1445" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1445" s="2">
         <v>43609</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1446" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1446" s="2">
         <v>43612</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1460" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1460" s="2">
         <v>43632</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1461" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1461" s="2">
         <v>43634</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1464" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1464" s="2">
         <v>43634</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1467" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1467" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1467" s="2">
         <v>43636</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1469" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1469" s="2">
         <v>43638</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1472" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1472" s="2">
         <v>43641</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1473" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1473" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1473" s="2">
         <v>43641</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1474" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1474" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1474" s="2">
         <v>43642</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1476" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1476" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1476" s="2">
         <v>43644</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1480" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1480" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1480" s="2">
         <v>43652</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1483" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1483" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1483" s="2">
         <v>43655</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1484" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1484" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1484" s="2">
         <v>43655</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1486" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1486" s="2">
         <v>43662</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1496" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1496" s="2">
         <v>43677</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1502" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1502" s="2">
         <v>43684</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1503" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1503" s="2">
         <v>43685</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1507" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1507" s="2">
         <v>43689</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1509" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1509" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1509" s="2">
         <v>43693</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1510" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1510" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1510" s="2">
         <v>43693</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1516" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1516" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1516" s="2">
         <v>43696</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1518" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1518" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1518" s="2">
         <v>43698</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1536" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1536" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1536" s="2">
         <v>43715</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1539" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1539" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1539" s="2">
         <v>43719</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1551" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1551" s="2">
         <v>43730</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1557" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1557" s="2">
         <v>43735</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1559" s="2"/>
       <c r="B1559" s="5"/>
       <c r="C1559" s="7"/>
@@ -23347,7 +23347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1561" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1561" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1561" s="2">
         <v>43741</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1581" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1581" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1581" s="2">
         <v>43761</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1585" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1585" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1585" s="2">
         <v>43764</v>
       </c>
@@ -23697,7 +23697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1586" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1586" s="2"/>
       <c r="B1586" s="5"/>
       <c r="C1586" s="7"/>
@@ -23731,7 +23731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1589" s="2"/>
       <c r="B1589" s="5"/>
       <c r="C1589" s="7"/>
@@ -23919,7 +23919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1603" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1603" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1603" s="2">
         <v>43781</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1607" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1607" s="2">
         <v>43783</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1609" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1609" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1609" s="2">
         <v>43787</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1610" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1610" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1610" s="2">
         <v>43788</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1615" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1615" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1615" s="2">
         <v>43791</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1644" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1644" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1644" s="2">
         <v>43819</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1647" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1647" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1647" s="2">
         <v>43821</v>
       </c>
@@ -24577,7 +24577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1650" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1650" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1650" s="2">
         <v>43826</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1651" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1651" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1651" s="2">
         <v>43828</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1654" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1654" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1654" s="2">
         <v>43829</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1668" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1668" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1668" s="2">
         <v>43844</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1669" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1669" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1669" s="2">
         <v>43844</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1671" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1671" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1671" s="2">
         <v>43846</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1672" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1672" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1672" s="2">
         <v>43846</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1673" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1673" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1673" s="2">
         <v>43852</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1674" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1674" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1674" s="2">
         <v>43854</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1676" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1676" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1676" s="2">
         <v>43856</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1677" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1677" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1677" s="2">
         <v>43859</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1678" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1678" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1678" s="2">
         <v>43860</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1683" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1683" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1683" s="2">
         <v>43864</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1690" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1690" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1690" s="2">
         <v>43868</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1692" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1692" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1692" s="2">
         <v>43869</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1699" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1699" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1699" s="2">
         <v>43880</v>
       </c>
@@ -25277,7 +25277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1700" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1700" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1700" s="2">
         <v>43881</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1702" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1702" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1702" s="2">
         <v>43885</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1703" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1703" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1703" s="2">
         <v>43886</v>
       </c>
@@ -25347,7 +25347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1705" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1705" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1705" s="2">
         <v>43887</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1706" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1706" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1706" s="2">
         <v>43888</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1707" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1707" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1707" s="2">
         <v>43889</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1713" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1713" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1713" s="2">
         <v>43918</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1726" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1726" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1726" s="2">
         <v>43942</v>
       </c>
@@ -25655,7 +25655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1727" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1727" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1727" s="2">
         <v>43943</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1730" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1730" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1730" s="2">
         <v>43959</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1731" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1731" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1731" s="2">
         <v>43959</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1733" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1733" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1733" s="2">
         <v>43960</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1739" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1739" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1739" s="2">
         <v>43980</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1740" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1740" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1740" s="2">
         <v>43981</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1742" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1742" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1742" s="2">
         <v>43982</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1750" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1750" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1750" s="2">
         <v>43989</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1751" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1751" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1751" s="2">
         <v>43991</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1753" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1753" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1753" s="2">
         <v>43993</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1755" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1755" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1755" s="2">
         <v>43997</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1760" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1760" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1760" s="2">
         <v>44000</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1762" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1762" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1762" s="2">
         <v>44003</v>
       </c>
@@ -26285,7 +26285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1772" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1772" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1772" s="2">
         <v>44016</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1775" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1775" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1775" s="2">
         <v>44019</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1779" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1779" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1779" s="2">
         <v>44026</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1801" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1801" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1801" s="2">
         <v>44064</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1804" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1804" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1804" s="2">
         <v>44090</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1807" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1807" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1807" s="2">
         <v>44092</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1808" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1808" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1808" s="2">
         <v>44093</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1821" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1821" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1821" s="2">
         <v>44128</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1822" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1822" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1822" s="2">
         <v>44129</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1824" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1824" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1824" s="2">
         <v>44130</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1837" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1837" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1837" s="2">
         <v>44154</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1838" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1838" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1838" s="2">
         <v>44185</v>
       </c>
@@ -27227,7 +27227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1841" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1841" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1841" s="2">
         <v>44191</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1842" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1842" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1842" s="2">
         <v>44193</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1857" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1857" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1857" s="2">
         <v>44229</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1858" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1858" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1858" s="2">
         <v>44230</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1861" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1861" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1861" s="2">
         <v>44233</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1862" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1862" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1862" s="2">
         <v>44234</v>
       </c>
@@ -27549,7 +27549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1864" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1864" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1864" s="2">
         <v>44237</v>
       </c>
@@ -27563,7 +27563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1865" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1865" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1865" s="2">
         <v>44238</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1867" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1867" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1867" s="2">
         <v>44238</v>
       </c>
@@ -27619,7 +27619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1869" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1869" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1869" s="2">
         <v>44239</v>
       </c>
@@ -27633,7 +27633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1870" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1870" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1870" s="2">
         <v>44241</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1875" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1875" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1875" s="2">
         <v>44267</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1881" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1881" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1881" s="2">
         <v>44276</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1882" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1882" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1882" s="2">
         <v>44276</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1894" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1894" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1894" s="2">
         <v>44288</v>
       </c>
@@ -27959,7 +27959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1895" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1895" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1895" s="2">
         <v>44294</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1896" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1896" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1896" s="2">
         <v>44294</v>
       </c>
@@ -27987,7 +27987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1897" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1897" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1897" s="2">
         <v>44294</v>
       </c>
@@ -28099,7 +28099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1905" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1905" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1905" s="2">
         <v>44305</v>
       </c>
@@ -28267,7 +28267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1917" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1917" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1917" s="2">
         <v>44320</v>
       </c>
@@ -28281,7 +28281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1918" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1918" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1918" s="2">
         <v>44321</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1920" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1920" s="2">
         <v>44323</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1921" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1921" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1921" s="2">
         <v>44326</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1924" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1924" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1924" s="2">
         <v>44348</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1929" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1929" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1929" s="2">
         <v>44354</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1930" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1930" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1930" s="2">
         <v>44355</v>
       </c>
@@ -28533,7 +28533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1936" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1936" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1936" s="2">
         <v>44359</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1940" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1940" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1940" s="2">
         <v>44378</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1941" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1941" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1941" s="2">
         <v>44380</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1943" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1943" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1943" s="2">
         <v>44382</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1944" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1944" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1944" s="2">
         <v>44382</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1949" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1949" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1949" s="2">
         <v>44392</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1950" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1950" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1950" s="2">
         <v>44394</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1963" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1963" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1963" s="2">
         <v>44413</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1967" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1967" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1967" s="2">
         <v>44417</v>
       </c>
@@ -29009,7 +29009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1970" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1970" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1970" s="2">
         <v>44421</v>
       </c>
@@ -29107,7 +29107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1977" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1977" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1977" s="2">
         <v>44424</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1978" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1978" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1978" s="2">
         <v>44425</v>
       </c>
@@ -29149,7 +29149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1980" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1980" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1980" s="2">
         <v>44429</v>
       </c>
@@ -29289,7 +29289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1990" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1990" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1990" s="2">
         <v>44451</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1996" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1996" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1996" s="2">
         <v>44465</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1998" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1998" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1998" s="2">
         <v>44469</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1999" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1999" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1999" s="2">
         <v>44471</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2009" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2009" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2009" s="2">
         <v>44478</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2011" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2011" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2011" s="2">
         <v>44482</v>
       </c>
@@ -29597,7 +29597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2012" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2012" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2012" s="2">
         <v>44482</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2022" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2022" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2022" s="2">
         <v>44515</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2023" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2023" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2023" s="2">
         <v>44535</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2026" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2026" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2026" s="2">
         <v>44547</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2027" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2027" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2027" s="2">
         <v>44547</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2041" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2041" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2041" s="2">
         <v>44578</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2042" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2042" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2042" s="2">
         <v>44579</v>
       </c>
@@ -30059,7 +30059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2045" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2045" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2045" s="2">
         <v>44584</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2046" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2046" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2046" s="2">
         <v>44585</v>
       </c>
@@ -30087,7 +30087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2047" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2047" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2047" s="2">
         <v>44586</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2048" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2048" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2048" s="2">
         <v>44590</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2049" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2049" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2049" s="2">
         <v>44596</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2050" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2050" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2050" s="2">
         <v>44599</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2052" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2052" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2052" s="2">
         <v>44601</v>
       </c>
@@ -30227,7 +30227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2057" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2057" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2057" s="2">
         <v>44609</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2063" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2063" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2063" s="2">
         <v>44623</v>
       </c>
@@ -30339,7 +30339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2065" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2065" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2065" s="2">
         <v>44625</v>
       </c>
@@ -30409,7 +30409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2070" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2070" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2070" s="2">
         <v>44647</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2071" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2071" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2071" s="2">
         <v>44647</v>
       </c>
@@ -30437,7 +30437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2072" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2072" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2072" s="2">
         <v>44650</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2076" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2076" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2076" s="2">
         <v>44654</v>
       </c>
@@ -30507,7 +30507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2077" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2077" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2077" s="2">
         <v>44655</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2079" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2079" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2079" s="2">
         <v>44657</v>
       </c>
@@ -30549,7 +30549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2080" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2080" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2080" s="2">
         <v>44661</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2088" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2088" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2088" s="2">
         <v>44670</v>
       </c>
@@ -30829,7 +30829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2100" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2100" s="2">
         <v>44698</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2102" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2102" s="2">
         <v>44699</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2104" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2104" s="2">
         <v>44700</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2105" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2105" s="2">
         <v>44700</v>
       </c>
@@ -30927,7 +30927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2107" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2107" s="2">
         <v>44703</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2112" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2112" s="2">
         <v>44716</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2114" s="2">
         <v>44719</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2120" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2120" s="2">
         <v>44732</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2123" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2123" s="2">
         <v>44738</v>
       </c>
@@ -31165,7 +31165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2124" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2124" s="2">
         <v>44740</v>
       </c>
@@ -31179,7 +31179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2125" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2125" s="2">
         <v>44748</v>
       </c>
@@ -31207,7 +31207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2127" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2127" s="2">
         <v>44752</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2131" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2131" s="2">
         <v>44762</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2133" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2133" s="2">
         <v>44769</v>
       </c>
@@ -31473,7 +31473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2146" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2146" s="2">
         <v>44791</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2150" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2150" s="2">
         <v>44800</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2154" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2154" s="2">
         <v>44806</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2159" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2159" s="2">
         <v>44814</v>
       </c>
@@ -31697,7 +31697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2162" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2162" s="2">
         <v>44816</v>
       </c>
@@ -31711,7 +31711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2163" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2163" s="2">
         <v>44816</v>
       </c>
@@ -31879,7 +31879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2175" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2175" s="2">
         <v>44833</v>
       </c>
@@ -31935,7 +31935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2179" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2179" s="2">
         <v>44843</v>
       </c>
@@ -31977,7 +31977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2182" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2182" s="2">
         <v>44847</v>
       </c>
@@ -31991,7 +31991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2183" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2183" s="2">
         <v>44850</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2193" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2193" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2193" s="2">
         <v>44877</v>
       </c>
@@ -32159,7 +32159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2195" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2195" s="2">
         <v>44881</v>
       </c>
@@ -32173,7 +32173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2196" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2196" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2196" s="2">
         <v>44884</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2209" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2209" s="2">
         <v>44915</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2210" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2210" s="2">
         <v>44920</v>
       </c>
@@ -32411,7 +32411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2213" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2213" s="2">
         <v>44922</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2214" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2214" s="2">
         <v>44923</v>
       </c>
